--- a/DateBase/orders/Dang Nguyen_2025-4-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-21.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012656510151012552051015105100</v>
+        <v>01012656510151012552051015105105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,172 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>252_露露公主_Princess Lulu_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_单瓣菟葵粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_单瓣菟葵粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>503_丁香花 粉_lilac pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>3</v>
+      </c>
+      <c r="C39" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>759_芍药红富士_Kansas_undefined_10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L40"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +834,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012656510151012552051015105105</v>
+        <v>0101265651015101255205101510510510184455210115551053103108</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-21.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-21.xlsx
@@ -836,6 +836,9 @@
       <c r="G2" t="str">
         <v>0101265651015101255205101510510510184455210115551053103108</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
